--- a/Glyphs.xlsx
+++ b/Glyphs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4270" uniqueCount="2067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4270" uniqueCount="2061">
   <si>
     <t>Name</t>
   </si>
@@ -6301,6 +6301,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6590,26 +6594,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="157" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="157" workbookViewId="0">
       <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="8" max="8" width="34.4375" customWidth="1"/>
-    <col min="9" max="9" width="56.765625" customWidth="1"/>
-    <col min="10" max="10" width="13.31640625" customWidth="1"/>
-    <col min="11" max="11" width="36.453125" customWidth="1"/>
-    <col min="12" max="12" width="27.57421875" customWidth="1"/>
-    <col min="13" max="13" width="14.390625" customWidth="1"/>
-    <col min="14" max="14" width="51.1171875" customWidth="1"/>
+    <col min="1" max="1" width="26.3671875" customWidth="1"/>
+    <col min="2" max="2" width="26.47265625" customWidth="1"/>
+    <col min="8" max="8" width="34.41796875" customWidth="1"/>
+    <col min="9" max="9" width="56.734375" customWidth="1"/>
+    <col min="10" max="10" width="13.3125" customWidth="1"/>
+    <col min="11" max="11" width="36.47265625" customWidth="1"/>
+    <col min="12" max="12" width="27.578125" customWidth="1"/>
+    <col min="13" max="13" width="14.3671875" customWidth="1"/>
+    <col min="14" max="14" width="51.1015625" customWidth="1"/>
     <col min="15" max="15" width="53" customWidth="1"/>
-    <col min="16" max="16" width="35.2421875" customWidth="1"/>
+    <col min="16" max="16" width="35.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2044</v>
       </c>
@@ -6659,7 +6663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -6705,7 +6709,7 @@
       </c>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -6753,7 +6757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -6799,7 +6803,7 @@
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="300.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="307.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -6845,7 +6849,7 @@
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
@@ -6893,7 +6897,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="192.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="196.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -6941,7 +6945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="252.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="258.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
@@ -6987,7 +6991,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="276.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="270.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
@@ -7035,7 +7039,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="396.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="393.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
@@ -7083,7 +7087,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>74</v>
       </c>
@@ -7129,7 +7133,7 @@
       </c>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>79</v>
       </c>
@@ -7175,7 +7179,7 @@
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>84</v>
       </c>
@@ -7221,7 +7225,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>90</v>
       </c>
@@ -7267,7 +7271,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="192.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="184.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>93</v>
       </c>
@@ -7313,7 +7317,7 @@
       </c>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>99</v>
       </c>
@@ -7361,7 +7365,7 @@
       </c>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>106</v>
       </c>
@@ -7409,7 +7413,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>109</v>
       </c>
@@ -7457,7 +7461,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>112</v>
       </c>
@@ -7505,7 +7509,7 @@
       </c>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="172.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>117</v>
       </c>
@@ -7553,7 +7557,7 @@
       </c>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>120</v>
       </c>
@@ -7599,7 +7603,7 @@
       </c>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>124</v>
       </c>
@@ -7645,7 +7649,7 @@
       </c>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>127</v>
       </c>
@@ -7691,7 +7695,7 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="172.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>130</v>
       </c>
@@ -7739,7 +7743,7 @@
       </c>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>134</v>
@@ -7785,7 +7789,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
         <v>138</v>
       </c>
@@ -7831,7 +7835,7 @@
       </c>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="172.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
         <v>143</v>
       </c>
@@ -7879,7 +7883,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
         <v>148</v>
       </c>
@@ -7925,7 +7929,7 @@
       </c>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
         <v>152</v>
       </c>
@@ -7971,7 +7975,7 @@
       </c>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
         <v>155</v>
       </c>
@@ -8017,7 +8021,7 @@
       </c>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="184.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
         <v>159</v>
       </c>
@@ -8065,7 +8069,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
         <v>163</v>
       </c>
@@ -8113,7 +8117,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
         <v>167</v>
       </c>
@@ -8159,7 +8163,7 @@
       </c>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
         <v>172</v>
       </c>
@@ -8205,7 +8209,7 @@
       </c>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>176</v>
@@ -8251,7 +8255,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
         <v>179</v>
       </c>
@@ -8299,7 +8303,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
         <v>184</v>
       </c>
@@ -8345,7 +8349,7 @@
       </c>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
         <v>188</v>
       </c>
@@ -8393,7 +8397,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="204.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="209.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
         <v>193</v>
       </c>
@@ -8439,7 +8443,7 @@
       </c>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
         <v>196</v>
       </c>
@@ -8485,7 +8489,7 @@
       </c>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
         <v>199</v>
       </c>
@@ -8533,7 +8537,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
         <v>204</v>
       </c>
@@ -8581,7 +8585,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="204.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="196.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
         <v>209</v>
       </c>
@@ -8629,7 +8633,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="172.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
         <v>214</v>
       </c>
@@ -8675,7 +8679,7 @@
       </c>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
         <v>218</v>
       </c>
@@ -8723,7 +8727,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
         <v>223</v>
       </c>
@@ -8771,7 +8775,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
         <v>228</v>
       </c>
@@ -8817,7 +8821,7 @@
       </c>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2" t="s">
         <v>232</v>
       </c>
@@ -8867,7 +8871,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
         <v>238</v>
       </c>
@@ -8917,7 +8921,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
         <v>243</v>
       </c>
@@ -8963,7 +8967,7 @@
       </c>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2" t="s">
         <v>247</v>
       </c>
@@ -9011,7 +9015,7 @@
       </c>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2" t="s">
         <v>253</v>
       </c>
@@ -9059,7 +9063,7 @@
       </c>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2" t="s">
         <v>258</v>
       </c>
@@ -9107,7 +9111,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
         <v>263</v>
       </c>
@@ -9155,7 +9159,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
         <v>268</v>
       </c>
@@ -9203,7 +9207,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="221.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2" t="s">
         <v>273</v>
       </c>
@@ -9251,7 +9255,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2" t="s">
         <v>277</v>
       </c>
@@ -9297,7 +9301,7 @@
       </c>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="172.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2" t="s">
         <v>281</v>
       </c>
@@ -9343,7 +9347,7 @@
       </c>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2" t="s">
         <v>285</v>
       </c>
@@ -9389,7 +9393,7 @@
       </c>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2" t="s">
         <v>289</v>
       </c>
@@ -9435,7 +9439,7 @@
       </c>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2" t="s">
         <v>293</v>
       </c>
@@ -9481,7 +9485,7 @@
       </c>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2" t="s">
         <v>297</v>
       </c>
@@ -9529,7 +9533,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2" t="s">
         <v>302</v>
       </c>
@@ -9577,7 +9581,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="172.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2" t="s">
         <v>307</v>
       </c>
@@ -9625,7 +9629,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2" t="s">
         <v>312</v>
       </c>
@@ -9671,7 +9675,7 @@
       </c>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2" t="s">
         <v>316</v>
       </c>
@@ -9719,7 +9723,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="228.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="221.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2" t="s">
         <v>321</v>
       </c>
@@ -9767,7 +9771,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="204.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" ht="196.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2" t="s">
         <v>326</v>
       </c>
@@ -9815,7 +9819,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" ht="172.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2" t="s">
         <v>330</v>
       </c>
@@ -9863,7 +9867,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2" t="s">
         <v>335</v>
       </c>
@@ -9909,7 +9913,7 @@
       </c>
       <c r="P70" s="2"/>
     </row>
-    <row r="71" spans="1:16" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" ht="172.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2" t="s">
         <v>339</v>
       </c>
@@ -9957,7 +9961,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="192.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" ht="184.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2" t="s">
         <v>343</v>
       </c>
@@ -10003,7 +10007,7 @@
       </c>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="1:16" ht="360.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" ht="356.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2" t="s">
         <v>347</v>
       </c>
@@ -10049,7 +10053,7 @@
       </c>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="1:16" ht="204.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" ht="209.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2" t="s">
         <v>352</v>
       </c>
@@ -10097,7 +10101,7 @@
       </c>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2" t="s">
         <v>357</v>
       </c>
@@ -10145,7 +10149,7 @@
       </c>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2" t="s">
         <v>360</v>
       </c>
@@ -10191,7 +10195,7 @@
       </c>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2" t="s">
         <v>365</v>
       </c>
@@ -10237,7 +10241,7 @@
       </c>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2" t="s">
         <v>371</v>
       </c>
@@ -10285,7 +10289,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2" t="s">
         <v>377</v>
       </c>
@@ -10333,7 +10337,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2" t="s">
         <v>382</v>
       </c>
@@ -10379,7 +10383,7 @@
       </c>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2" t="s">
         <v>385</v>
       </c>
@@ -10427,7 +10431,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="252.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" ht="246" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2" t="s">
         <v>389</v>
       </c>
@@ -10477,7 +10481,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2" t="s">
         <v>395</v>
       </c>
@@ -10525,7 +10529,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2" t="s">
         <v>400</v>
       </c>
@@ -10571,7 +10575,7 @@
       </c>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2" t="s">
         <v>404</v>
       </c>
@@ -10617,7 +10621,7 @@
       </c>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2" t="s">
         <v>408</v>
       </c>
@@ -10665,7 +10669,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2" t="s">
         <v>413</v>
       </c>
@@ -10711,7 +10715,7 @@
       </c>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2" t="s">
         <v>416</v>
       </c>
@@ -10757,7 +10761,7 @@
       </c>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="1:16" ht="36.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2" t="s">
         <v>420</v>
       </c>
@@ -10803,7 +10807,7 @@
       </c>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2" t="s">
         <v>423</v>
       </c>
@@ -10849,7 +10853,7 @@
       </c>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2" t="s">
         <v>426</v>
       </c>
@@ -10895,7 +10899,7 @@
       </c>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="1:16" ht="240.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" ht="233.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2" t="s">
         <v>430</v>
       </c>
@@ -10943,7 +10947,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="2" t="s">
         <v>435</v>
       </c>
@@ -10989,7 +10993,7 @@
       </c>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="2" t="s">
         <v>439</v>
       </c>
@@ -11035,7 +11039,7 @@
       </c>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="2" t="s">
         <v>442</v>
       </c>
@@ -11081,7 +11085,7 @@
       </c>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="2" t="s">
         <v>446</v>
       </c>
@@ -11127,7 +11131,7 @@
       </c>
       <c r="P96" s="2"/>
     </row>
-    <row r="97" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="2" t="s">
         <v>450</v>
       </c>
@@ -11173,7 +11177,7 @@
       </c>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" spans="1:16" ht="384.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" ht="381.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="2" t="s">
         <v>454</v>
       </c>
@@ -11219,7 +11223,7 @@
       </c>
       <c r="P98" s="2"/>
     </row>
-    <row r="99" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="2" t="s">
         <v>458</v>
       </c>
@@ -11265,7 +11269,7 @@
       </c>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="1:16" ht="204.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" ht="196.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2" t="s">
         <v>462</v>
       </c>
@@ -11311,7 +11315,7 @@
       </c>
       <c r="P100" s="2"/>
     </row>
-    <row r="101" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" ht="172.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="2" t="s">
         <v>466</v>
       </c>
@@ -11359,7 +11363,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="204.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" ht="209.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2" t="s">
         <v>471</v>
       </c>
@@ -11405,7 +11409,7 @@
       </c>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2" t="s">
         <v>475</v>
       </c>
@@ -11453,7 +11457,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
         <v>480</v>
       </c>
@@ -11501,7 +11505,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2" t="s">
         <v>484</v>
       </c>
@@ -11549,7 +11553,7 @@
       </c>
       <c r="P105" s="2"/>
     </row>
-    <row r="106" spans="1:16" ht="36.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2" t="s">
         <v>487</v>
       </c>
@@ -11595,7 +11599,7 @@
       </c>
       <c r="P106" s="2"/>
     </row>
-    <row r="107" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2" t="s">
         <v>490</v>
       </c>
@@ -11641,7 +11645,7 @@
       </c>
       <c r="P107" s="2"/>
     </row>
-    <row r="108" spans="1:16" ht="252.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" ht="246" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2" t="s">
         <v>494</v>
       </c>
@@ -11689,7 +11693,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="252.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" ht="246" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2" t="s">
         <v>499</v>
       </c>
@@ -11737,7 +11741,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="252.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" ht="246" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2" t="s">
         <v>504</v>
       </c>
@@ -11785,7 +11789,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" ht="172.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="2" t="s">
         <v>509</v>
       </c>
@@ -11833,7 +11837,7 @@
       </c>
       <c r="P111" s="2"/>
     </row>
-    <row r="112" spans="1:16" ht="348.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" ht="332.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="2" t="s">
         <v>512</v>
       </c>
@@ -11879,7 +11883,7 @@
       </c>
       <c r="P112" s="2"/>
     </row>
-    <row r="113" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="2" t="s">
         <v>516</v>
       </c>
@@ -11925,7 +11929,7 @@
       </c>
       <c r="P113" s="2"/>
     </row>
-    <row r="114" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="2" t="s">
         <v>518</v>
       </c>
@@ -11971,7 +11975,7 @@
       </c>
       <c r="P114" s="2"/>
     </row>
-    <row r="115" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="2" t="s">
         <v>522</v>
       </c>
@@ -12017,7 +12021,7 @@
       </c>
       <c r="P115" s="2"/>
     </row>
-    <row r="116" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="2" t="s">
         <v>525</v>
       </c>
@@ -12065,7 +12069,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" ht="184.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="2" t="s">
         <v>529</v>
       </c>
@@ -12111,7 +12115,7 @@
       </c>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" spans="1:16" ht="300.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" ht="295.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="2" t="s">
         <v>533</v>
       </c>
@@ -12157,7 +12161,7 @@
       </c>
       <c r="P118" s="2"/>
     </row>
-    <row r="119" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="2" t="s">
         <v>537</v>
       </c>
@@ -12205,7 +12209,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="2" t="s">
         <v>542</v>
       </c>
@@ -12251,7 +12255,7 @@
       </c>
       <c r="P120" s="2"/>
     </row>
-    <row r="121" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="2" t="s">
         <v>546</v>
       </c>
@@ -12297,7 +12301,7 @@
       </c>
       <c r="P121" s="2"/>
     </row>
-    <row r="122" spans="1:16" ht="276.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" ht="270.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2" t="s">
         <v>550</v>
       </c>
@@ -12345,7 +12349,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="2" t="s">
         <v>554</v>
       </c>
@@ -12391,7 +12395,7 @@
       </c>
       <c r="P123" s="2"/>
     </row>
-    <row r="124" spans="1:16" ht="36.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="2" t="s">
         <v>557</v>
       </c>
@@ -12437,7 +12441,7 @@
       </c>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="1:16" ht="228.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" ht="221.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="2" t="s">
         <v>561</v>
       </c>
@@ -12483,7 +12487,7 @@
       </c>
       <c r="P125" s="2"/>
     </row>
-    <row r="126" spans="1:16" ht="192.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" ht="196.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="2" t="s">
         <v>565</v>
       </c>
@@ -12529,7 +12533,7 @@
       </c>
       <c r="P126" s="2"/>
     </row>
-    <row r="127" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="2" t="s">
         <v>569</v>
       </c>
@@ -12575,7 +12579,7 @@
       </c>
       <c r="P127" s="2"/>
     </row>
-    <row r="128" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2" t="s">
         <v>573</v>
       </c>
@@ -12623,7 +12627,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2" t="s">
         <v>577</v>
       </c>
@@ -12669,7 +12673,7 @@
       </c>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2" t="s">
         <v>582</v>
       </c>
@@ -12715,7 +12719,7 @@
       </c>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="2" t="s">
         <v>587</v>
       </c>
@@ -12761,7 +12765,7 @@
       </c>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2" t="s">
         <v>591</v>
       </c>
@@ -12807,7 +12811,7 @@
       </c>
       <c r="P132" s="2"/>
     </row>
-    <row r="133" spans="1:16" ht="384.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" ht="381.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="2" t="s">
         <v>595</v>
       </c>
@@ -12855,7 +12859,7 @@
       </c>
       <c r="P133" s="2"/>
     </row>
-    <row r="134" spans="1:16" ht="288.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" ht="282.89999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="2" t="s">
         <v>600</v>
       </c>
@@ -12901,7 +12905,7 @@
       </c>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="2" t="s">
         <v>604</v>
       </c>
@@ -12949,7 +12953,7 @@
       </c>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="2" t="s">
         <v>609</v>
       </c>
@@ -12995,7 +12999,7 @@
       </c>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="2" t="s">
         <v>613</v>
       </c>
@@ -13041,7 +13045,7 @@
       </c>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="2" t="s">
         <v>617</v>
       </c>
@@ -13089,7 +13093,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="2" t="s">
         <v>622</v>
       </c>
@@ -13135,7 +13139,7 @@
       </c>
       <c r="P139" s="2"/>
     </row>
-    <row r="140" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="2" t="s">
         <v>626</v>
       </c>
@@ -13181,7 +13185,7 @@
       </c>
       <c r="P140" s="2"/>
     </row>
-    <row r="141" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="2" t="s">
         <v>629</v>
       </c>
@@ -13227,7 +13231,7 @@
       </c>
       <c r="P141" s="2"/>
     </row>
-    <row r="142" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="2" t="s">
         <v>633</v>
       </c>
@@ -13275,7 +13279,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="2" t="s">
         <v>638</v>
       </c>
@@ -13323,7 +13327,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="2" t="s">
         <v>643</v>
       </c>
@@ -13371,7 +13375,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="192.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" ht="196.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="2" t="s">
         <v>647</v>
       </c>
@@ -13417,7 +13421,7 @@
       </c>
       <c r="P145" s="2"/>
     </row>
-    <row r="146" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="2" t="s">
         <v>651</v>
       </c>
@@ -13465,7 +13469,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="2" t="s">
         <v>656</v>
       </c>
@@ -13513,7 +13517,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="240.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" ht="246" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="2" t="s">
         <v>661</v>
       </c>
@@ -13561,7 +13565,7 @@
       </c>
       <c r="P148" s="2"/>
     </row>
-    <row r="149" spans="1:16" ht="252.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" ht="246" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="2" t="s">
         <v>666</v>
       </c>
@@ -13609,7 +13613,7 @@
       </c>
       <c r="P149" s="2"/>
     </row>
-    <row r="150" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="2" t="s">
         <v>671</v>
       </c>
@@ -13655,7 +13659,7 @@
       </c>
       <c r="P150" s="2"/>
     </row>
-    <row r="151" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="2" t="s">
         <v>675</v>
       </c>
@@ -13701,7 +13705,7 @@
       </c>
       <c r="P151" s="2"/>
     </row>
-    <row r="152" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="2" t="s">
         <v>679</v>
       </c>
@@ -13747,7 +13751,7 @@
       </c>
       <c r="P152" s="2"/>
     </row>
-    <row r="153" spans="1:16" ht="192.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" ht="196.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="2" t="s">
         <v>683</v>
       </c>
@@ -13793,7 +13797,7 @@
       </c>
       <c r="P153" s="2"/>
     </row>
-    <row r="154" spans="1:16" ht="240.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" ht="233.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="2" t="s">
         <v>687</v>
       </c>
@@ -13841,7 +13845,7 @@
       </c>
       <c r="P154" s="2"/>
     </row>
-    <row r="155" spans="1:16" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="2" t="s">
         <v>692</v>
       </c>
@@ -13889,7 +13893,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="2" t="s">
         <v>698</v>
       </c>
@@ -13935,7 +13939,7 @@
       </c>
       <c r="P156" s="2"/>
     </row>
-    <row r="157" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="2" t="s">
         <v>702</v>
       </c>
@@ -13981,7 +13985,7 @@
       </c>
       <c r="P157" s="2"/>
     </row>
-    <row r="158" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="2" t="s">
         <v>706</v>
       </c>
@@ -14027,7 +14031,7 @@
       </c>
       <c r="P158" s="2"/>
     </row>
-    <row r="159" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="2" t="s">
         <v>710</v>
       </c>
@@ -14075,7 +14079,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="2" t="s">
         <v>715</v>
       </c>
@@ -14125,7 +14129,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="2" t="s">
         <v>722</v>
       </c>
@@ -14171,7 +14175,7 @@
       </c>
       <c r="P161" s="2"/>
     </row>
-    <row r="162" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="2" t="s">
         <v>726</v>
       </c>
@@ -14217,7 +14221,7 @@
       </c>
       <c r="P162" s="2"/>
     </row>
-    <row r="163" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="2" t="s">
         <v>730</v>
       </c>
@@ -14263,7 +14267,7 @@
       </c>
       <c r="P163" s="2"/>
     </row>
-    <row r="164" spans="1:16" ht="36.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="2" t="s">
         <v>734</v>
       </c>
@@ -14309,7 +14313,7 @@
       </c>
       <c r="P164" s="2"/>
     </row>
-    <row r="165" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="2" t="s">
         <v>738</v>
       </c>
@@ -14357,7 +14361,7 @@
       </c>
       <c r="P165" s="2"/>
     </row>
-    <row r="166" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="2" t="s">
         <v>741</v>
       </c>
@@ -14403,7 +14407,7 @@
       </c>
       <c r="P166" s="2"/>
     </row>
-    <row r="167" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="2" t="s">
         <v>744</v>
       </c>
@@ -14451,7 +14455,7 @@
       </c>
       <c r="P167" s="2"/>
     </row>
-    <row r="168" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="2" t="s">
         <v>748</v>
       </c>
@@ -14497,7 +14501,7 @@
       </c>
       <c r="P168" s="2"/>
     </row>
-    <row r="169" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="2" t="s">
         <v>751</v>
       </c>
@@ -14545,7 +14549,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="2" t="s">
         <v>754</v>
       </c>
@@ -14591,7 +14595,7 @@
       </c>
       <c r="P170" s="2"/>
     </row>
-    <row r="171" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="2" t="s">
         <v>759</v>
       </c>
@@ -14639,7 +14643,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="2" t="s">
         <v>764</v>
       </c>
@@ -14687,7 +14691,7 @@
       </c>
       <c r="P172" s="2"/>
     </row>
-    <row r="173" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" ht="184.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="2" t="s">
         <v>767</v>
       </c>
@@ -14733,7 +14737,7 @@
       </c>
       <c r="P173" s="2"/>
     </row>
-    <row r="174" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="2" t="s">
         <v>771</v>
       </c>
@@ -14779,7 +14783,7 @@
       </c>
       <c r="P174" s="2"/>
     </row>
-    <row r="175" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="2" t="s">
         <v>774</v>
       </c>
@@ -14825,7 +14829,7 @@
       </c>
       <c r="P175" s="2"/>
     </row>
-    <row r="176" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="2" t="s">
         <v>778</v>
       </c>
@@ -14873,7 +14877,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="2" t="s">
         <v>782</v>
       </c>
@@ -14921,7 +14925,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="2" t="s">
         <v>786</v>
       </c>
@@ -14969,7 +14973,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="2" t="s">
         <v>791</v>
       </c>
@@ -15017,7 +15021,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="2" t="s">
         <v>797</v>
       </c>
@@ -15065,7 +15069,7 @@
       </c>
       <c r="P180" s="2"/>
     </row>
-    <row r="181" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="2" t="s">
         <v>801</v>
       </c>
@@ -15113,7 +15117,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="2" t="s">
         <v>804</v>
       </c>
@@ -15161,7 +15165,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="2" t="s">
         <v>809</v>
       </c>
@@ -15209,7 +15213,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="2" t="s">
         <v>814</v>
       </c>
@@ -15257,7 +15261,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="2" t="s">
         <v>819</v>
       </c>
@@ -15305,7 +15309,7 @@
       </c>
       <c r="P185" s="2"/>
     </row>
-    <row r="186" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="2" t="s">
         <v>822</v>
       </c>
@@ -15351,7 +15355,7 @@
       </c>
       <c r="P186" s="2"/>
     </row>
-    <row r="187" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="2" t="s">
         <v>826</v>
       </c>
@@ -15399,7 +15403,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="2" t="s">
         <v>830</v>
       </c>
@@ -15445,7 +15449,7 @@
       </c>
       <c r="P188" s="2"/>
     </row>
-    <row r="189" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="2" t="s">
         <v>834</v>
       </c>
@@ -15493,7 +15497,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="2" t="s">
         <v>839</v>
       </c>
@@ -15541,7 +15545,7 @@
       </c>
       <c r="P190" s="2"/>
     </row>
-    <row r="191" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="2" t="s">
         <v>842</v>
       </c>
@@ -15589,7 +15593,7 @@
       </c>
       <c r="P191" s="2"/>
     </row>
-    <row r="192" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="2" t="s">
         <v>846</v>
       </c>
@@ -15637,7 +15641,7 @@
       </c>
       <c r="P192" s="2"/>
     </row>
-    <row r="193" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="2" t="s">
         <v>850</v>
       </c>
@@ -15683,7 +15687,7 @@
       </c>
       <c r="P193" s="2"/>
     </row>
-    <row r="194" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="2" t="s">
         <v>854</v>
       </c>
@@ -15731,7 +15735,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="2" t="s">
         <v>858</v>
       </c>
@@ -15779,7 +15783,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="2" t="s">
         <v>863</v>
       </c>
@@ -15827,7 +15831,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="2" t="s">
         <v>867</v>
       </c>
@@ -15873,7 +15877,7 @@
       </c>
       <c r="P197" s="2"/>
     </row>
-    <row r="198" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="2" t="s">
         <v>871</v>
       </c>
@@ -15919,7 +15923,7 @@
       </c>
       <c r="P198" s="2"/>
     </row>
-    <row r="199" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16" ht="172.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="2" t="s">
         <v>875</v>
       </c>
@@ -15967,7 +15971,7 @@
       </c>
       <c r="P199" s="2"/>
     </row>
-    <row r="200" spans="1:16" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16" ht="172.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="2" t="s">
         <v>880</v>
       </c>
@@ -16015,7 +16019,7 @@
       </c>
       <c r="P200" s="2"/>
     </row>
-    <row r="201" spans="1:16" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" ht="172.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="2" t="s">
         <v>885</v>
       </c>
@@ -16061,7 +16065,7 @@
       </c>
       <c r="P201" s="2"/>
     </row>
-    <row r="202" spans="1:16" ht="36.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="2" t="s">
         <v>890</v>
       </c>
@@ -16107,7 +16111,7 @@
       </c>
       <c r="P202" s="2"/>
     </row>
-    <row r="203" spans="1:16" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="2" t="s">
         <v>892</v>
       </c>
@@ -16153,7 +16157,7 @@
       </c>
       <c r="P203" s="2"/>
     </row>
-    <row r="204" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="2" t="s">
         <v>895</v>
       </c>
@@ -16199,7 +16203,7 @@
       </c>
       <c r="P204" s="2"/>
     </row>
-    <row r="205" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="2" t="s">
         <v>898</v>
       </c>
@@ -16247,7 +16251,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="2" t="s">
         <v>902</v>
       </c>
@@ -16295,7 +16299,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="2" t="s">
         <v>906</v>
       </c>
@@ -16341,7 +16345,7 @@
       </c>
       <c r="P207" s="2"/>
     </row>
-    <row r="208" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="2" t="s">
         <v>909</v>
       </c>
@@ -16387,7 +16391,7 @@
       </c>
       <c r="P208" s="2"/>
     </row>
-    <row r="209" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="2" t="s">
         <v>913</v>
       </c>
@@ -16433,7 +16437,7 @@
       </c>
       <c r="P209" s="2"/>
     </row>
-    <row r="210" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="2" t="s">
         <v>917</v>
       </c>
@@ -16481,7 +16485,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="2" t="s">
         <v>920</v>
       </c>
@@ -16527,7 +16531,7 @@
       </c>
       <c r="P211" s="2"/>
     </row>
-    <row r="212" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="2" t="s">
         <v>924</v>
       </c>
@@ -16573,7 +16577,7 @@
       </c>
       <c r="P212" s="2"/>
     </row>
-    <row r="213" spans="1:16" ht="192.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16" ht="196.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="2" t="s">
         <v>928</v>
       </c>
@@ -16623,7 +16627,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="2" t="s">
         <v>933</v>
       </c>
@@ -16671,7 +16675,7 @@
       </c>
       <c r="P214" s="2"/>
     </row>
-    <row r="215" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="2" t="s">
         <v>937</v>
       </c>
@@ -16719,7 +16723,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="252.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16" ht="246" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="2" t="s">
         <v>941</v>
       </c>
@@ -16767,7 +16771,7 @@
       </c>
       <c r="P216" s="2"/>
     </row>
-    <row r="217" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="2" t="s">
         <v>945</v>
       </c>
@@ -16815,7 +16819,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="288.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" ht="295.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="2" t="s">
         <v>950</v>
       </c>
@@ -16863,7 +16867,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="2" t="s">
         <v>955</v>
       </c>
@@ -16911,7 +16915,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="2" t="s">
         <v>960</v>
       </c>
@@ -16957,7 +16961,7 @@
       </c>
       <c r="P220" s="2"/>
     </row>
-    <row r="221" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="2" t="s">
         <v>963</v>
       </c>
@@ -17005,7 +17009,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="252.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" ht="246" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="2" t="s">
         <v>968</v>
       </c>
@@ -17053,7 +17057,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="2" t="s">
         <v>973</v>
       </c>
@@ -17099,7 +17103,7 @@
       </c>
       <c r="P223" s="2"/>
     </row>
-    <row r="224" spans="1:16" ht="240.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" ht="233.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="2" t="s">
         <v>977</v>
       </c>
@@ -17145,7 +17149,7 @@
       </c>
       <c r="P224" s="2"/>
     </row>
-    <row r="225" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="2" t="s">
         <v>981</v>
       </c>
@@ -17193,7 +17197,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="2" t="s">
         <v>986</v>
       </c>
@@ -17239,7 +17243,7 @@
       </c>
       <c r="P226" s="2"/>
     </row>
-    <row r="227" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="2" t="s">
         <v>989</v>
       </c>
@@ -17285,7 +17289,7 @@
       </c>
       <c r="P227" s="2"/>
     </row>
-    <row r="228" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="2" t="s">
         <v>993</v>
       </c>
@@ -17331,7 +17335,7 @@
       </c>
       <c r="P228" s="2"/>
     </row>
-    <row r="229" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="2" t="s">
         <v>997</v>
       </c>
@@ -17377,7 +17381,7 @@
       </c>
       <c r="P229" s="2"/>
     </row>
-    <row r="230" spans="1:16" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" ht="209.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="2" t="s">
         <v>1001</v>
       </c>
@@ -17423,7 +17427,7 @@
       </c>
       <c r="P230" s="2"/>
     </row>
-    <row r="231" spans="1:16" ht="228.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" ht="233.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="2" t="s">
         <v>1005</v>
       </c>
@@ -17469,7 +17473,7 @@
       </c>
       <c r="P231" s="2"/>
     </row>
-    <row r="232" spans="1:16" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16" ht="209.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="2" t="s">
         <v>1010</v>
       </c>
@@ -17515,7 +17519,7 @@
       </c>
       <c r="P232" s="2"/>
     </row>
-    <row r="233" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="2" t="s">
         <v>1013</v>
       </c>
@@ -17561,7 +17565,7 @@
       </c>
       <c r="P233" s="2"/>
     </row>
-    <row r="234" spans="1:16" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="2" t="s">
         <v>1017</v>
       </c>
@@ -17607,7 +17611,7 @@
       </c>
       <c r="P234" s="2"/>
     </row>
-    <row r="235" spans="1:16" ht="360.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" ht="369" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="2" t="s">
         <v>1019</v>
       </c>
@@ -17655,7 +17659,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="2" t="s">
         <v>1024</v>
       </c>
@@ -17703,7 +17707,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="2" t="s">
         <v>1029</v>
       </c>
@@ -17749,7 +17753,7 @@
       </c>
       <c r="P237" s="2"/>
     </row>
-    <row r="238" spans="1:16" ht="312.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" ht="307.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="2" t="s">
         <v>1033</v>
       </c>
@@ -17797,7 +17801,7 @@
       </c>
       <c r="P238" s="2"/>
     </row>
-    <row r="239" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" ht="184.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="2" t="s">
         <v>1038</v>
       </c>
@@ -17845,7 +17849,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="2" t="s">
         <v>1043</v>
       </c>
@@ -17893,7 +17897,7 @@
       </c>
       <c r="P240" s="2"/>
     </row>
-    <row r="241" spans="1:16" ht="228.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" ht="233.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="2" t="s">
         <v>1048</v>
       </c>
@@ -17939,7 +17943,7 @@
       </c>
       <c r="P241" s="2"/>
     </row>
-    <row r="242" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="2" t="s">
         <v>1053</v>
       </c>
@@ -17987,7 +17991,7 @@
       </c>
       <c r="P242" s="2"/>
     </row>
-    <row r="243" spans="1:16" ht="252.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16" ht="246" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="2" t="s">
         <v>1057</v>
       </c>
@@ -18033,7 +18037,7 @@
       </c>
       <c r="P243" s="2"/>
     </row>
-    <row r="244" spans="1:16" ht="252.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16" ht="246" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="2" t="s">
         <v>1061</v>
       </c>
@@ -18081,7 +18085,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="192.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16" ht="196.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="2" t="s">
         <v>1066</v>
       </c>
@@ -18127,7 +18131,7 @@
       </c>
       <c r="P245" s="2"/>
     </row>
-    <row r="246" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="2" t="s">
         <v>1070</v>
       </c>
@@ -18173,7 +18177,7 @@
       </c>
       <c r="P246" s="2"/>
     </row>
-    <row r="247" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="2" t="s">
         <v>1074</v>
       </c>
@@ -18219,7 +18223,7 @@
       </c>
       <c r="P247" s="2"/>
     </row>
-    <row r="248" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="2" t="s">
         <v>1078</v>
       </c>
@@ -18265,7 +18269,7 @@
       </c>
       <c r="P248" s="2"/>
     </row>
-    <row r="249" spans="1:16" ht="360.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16" ht="369" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="2" t="s">
         <v>1082</v>
       </c>
@@ -18311,7 +18315,7 @@
       </c>
       <c r="P249" s="2"/>
     </row>
-    <row r="250" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="2" t="s">
         <v>1086</v>
       </c>
@@ -18359,7 +18363,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="2" t="s">
         <v>1091</v>
       </c>
@@ -18405,7 +18409,7 @@
       </c>
       <c r="P251" s="2"/>
     </row>
-    <row r="252" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="2" t="s">
         <v>1095</v>
       </c>
@@ -18451,7 +18455,7 @@
       </c>
       <c r="P252" s="2"/>
     </row>
-    <row r="253" spans="1:16" ht="240.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16" ht="246" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="2" t="s">
         <v>1099</v>
       </c>
@@ -18501,7 +18505,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="240.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16" ht="246" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="2" t="s">
         <v>1104</v>
       </c>
@@ -18549,7 +18553,7 @@
       </c>
       <c r="P254" s="2"/>
     </row>
-    <row r="255" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="2" t="s">
         <v>1108</v>
       </c>
@@ -18595,7 +18599,7 @@
       </c>
       <c r="P255" s="2"/>
     </row>
-    <row r="256" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="2" t="s">
         <v>1113</v>
       </c>
@@ -18641,7 +18645,7 @@
       </c>
       <c r="P256" s="2"/>
     </row>
-    <row r="257" spans="1:16" ht="264.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16" ht="258.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="2" t="s">
         <v>1117</v>
       </c>
@@ -18687,7 +18691,7 @@
       </c>
       <c r="P257" s="2"/>
     </row>
-    <row r="258" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="2" t="s">
         <v>1121</v>
       </c>
@@ -18733,7 +18737,7 @@
       </c>
       <c r="P258" s="2"/>
     </row>
-    <row r="259" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="2" t="s">
         <v>1125</v>
       </c>
@@ -18779,7 +18783,7 @@
       </c>
       <c r="P259" s="2"/>
     </row>
-    <row r="260" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="2" t="s">
         <v>1129</v>
       </c>
@@ -18825,7 +18829,7 @@
       </c>
       <c r="P260" s="2"/>
     </row>
-    <row r="261" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="2" t="s">
         <v>1133</v>
       </c>
@@ -18873,7 +18877,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16" ht="172.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="2" t="s">
         <v>1137</v>
       </c>
@@ -18919,7 +18923,7 @@
       </c>
       <c r="P262" s="2"/>
     </row>
-    <row r="263" spans="1:16" ht="348.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16" ht="344.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="2" t="s">
         <v>1141</v>
       </c>
@@ -18965,7 +18969,7 @@
       </c>
       <c r="P263" s="2"/>
     </row>
-    <row r="264" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="2" t="s">
         <v>1144</v>
       </c>
@@ -19011,7 +19015,7 @@
       </c>
       <c r="P264" s="2"/>
     </row>
-    <row r="265" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="2" t="s">
         <v>1147</v>
       </c>
@@ -19057,7 +19061,7 @@
       </c>
       <c r="P265" s="2"/>
     </row>
-    <row r="266" spans="1:16" ht="288.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16" ht="282.89999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="2" t="s">
         <v>1151</v>
       </c>
@@ -19105,7 +19109,7 @@
       </c>
       <c r="P266" s="2"/>
     </row>
-    <row r="267" spans="1:16" ht="240.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16" ht="233.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="2" t="s">
         <v>1155</v>
       </c>
@@ -19153,7 +19157,7 @@
       </c>
       <c r="P267" s="2"/>
     </row>
-    <row r="268" spans="1:16" ht="36.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="2" t="s">
         <v>1160</v>
       </c>
@@ -19199,7 +19203,7 @@
       </c>
       <c r="P268" s="2"/>
     </row>
-    <row r="269" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="2" t="s">
         <v>1163</v>
       </c>
@@ -19245,7 +19249,7 @@
       </c>
       <c r="P269" s="2"/>
     </row>
-    <row r="270" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="2" t="s">
         <v>1167</v>
       </c>
@@ -19291,7 +19295,7 @@
       </c>
       <c r="P270" s="2"/>
     </row>
-    <row r="271" spans="1:16" ht="36.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="2" t="s">
         <v>1170</v>
       </c>
@@ -19337,7 +19341,7 @@
       </c>
       <c r="P271" s="2"/>
     </row>
-    <row r="272" spans="1:16" ht="204.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16" ht="196.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="2" t="s">
         <v>1173</v>
       </c>
@@ -19385,7 +19389,7 @@
       </c>
       <c r="P272" s="2"/>
     </row>
-    <row r="273" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="2" t="s">
         <v>1177</v>
       </c>
@@ -19431,7 +19435,7 @@
       </c>
       <c r="P273" s="2"/>
     </row>
-    <row r="274" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="2" t="s">
         <v>1181</v>
       </c>
@@ -19477,7 +19481,7 @@
       </c>
       <c r="P274" s="2"/>
     </row>
-    <row r="275" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="2" t="s">
         <v>1185</v>
       </c>
@@ -19523,7 +19527,7 @@
       </c>
       <c r="P275" s="2"/>
     </row>
-    <row r="276" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="2" t="s">
         <v>1189</v>
       </c>
@@ -19571,7 +19575,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="2" t="s">
         <v>1194</v>
       </c>
@@ -19617,7 +19621,7 @@
       </c>
       <c r="P277" s="2"/>
     </row>
-    <row r="278" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="2" t="s">
         <v>1198</v>
       </c>
@@ -19665,7 +19669,7 @@
       </c>
       <c r="P278" s="2"/>
     </row>
-    <row r="279" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="2" t="s">
         <v>1202</v>
       </c>
@@ -19711,7 +19715,7 @@
       </c>
       <c r="P279" s="2"/>
     </row>
-    <row r="280" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="2" t="s">
         <v>1206</v>
       </c>
@@ -19757,7 +19761,7 @@
       </c>
       <c r="P280" s="2"/>
     </row>
-    <row r="281" spans="1:16" ht="204.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16" ht="209.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="2" t="s">
         <v>1209</v>
       </c>
@@ -19805,7 +19809,7 @@
       </c>
       <c r="P281" s="2"/>
     </row>
-    <row r="282" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="2" t="s">
         <v>1212</v>
       </c>
@@ -19851,7 +19855,7 @@
       </c>
       <c r="P282" s="2"/>
     </row>
-    <row r="283" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="2" t="s">
         <v>1216</v>
       </c>
@@ -19899,7 +19903,7 @@
       </c>
       <c r="P283" s="2"/>
     </row>
-    <row r="284" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="2" t="s">
         <v>1221</v>
       </c>
@@ -19945,7 +19949,7 @@
       </c>
       <c r="P284" s="2"/>
     </row>
-    <row r="285" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="2" t="s">
         <v>1225</v>
       </c>
@@ -19991,7 +19995,7 @@
       </c>
       <c r="P285" s="2"/>
     </row>
-    <row r="286" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="2" t="s">
         <v>1228</v>
       </c>
@@ -20037,7 +20041,7 @@
       </c>
       <c r="P286" s="2"/>
     </row>
-    <row r="287" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="2" t="s">
         <v>1231</v>
       </c>
@@ -20085,7 +20089,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="192.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16" ht="196.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="2" t="s">
         <v>1235</v>
       </c>
@@ -20133,7 +20137,7 @@
       </c>
       <c r="P288" s="2"/>
     </row>
-    <row r="289" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="2" t="s">
         <v>1239</v>
       </c>
@@ -20181,7 +20185,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:16" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="2" t="s">
         <v>1244</v>
       </c>
@@ -20227,7 +20231,7 @@
       </c>
       <c r="P290" s="2"/>
     </row>
-    <row r="291" spans="1:16" ht="264.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:16" ht="270.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="2" t="s">
         <v>1247</v>
       </c>
@@ -20273,7 +20277,7 @@
       </c>
       <c r="P291" s="2"/>
     </row>
-    <row r="292" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="2" t="s">
         <v>1251</v>
       </c>
@@ -20319,7 +20323,7 @@
       </c>
       <c r="P292" s="2"/>
     </row>
-    <row r="293" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="2" t="s">
         <v>1256</v>
       </c>
@@ -20367,7 +20371,7 @@
       </c>
       <c r="P293" s="2"/>
     </row>
-    <row r="294" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="2" t="s">
         <v>1260</v>
       </c>
@@ -20415,7 +20419,7 @@
       </c>
       <c r="P294" s="2"/>
     </row>
-    <row r="295" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="2" t="s">
         <v>1263</v>
       </c>
@@ -20463,7 +20467,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="2" t="s">
         <v>1266</v>
       </c>
@@ -20509,7 +20513,7 @@
       </c>
       <c r="P296" s="2"/>
     </row>
-    <row r="297" spans="1:16" ht="36.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:16" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="2" t="s">
         <v>1269</v>
       </c>
@@ -20555,7 +20559,7 @@
       </c>
       <c r="P297" s="2"/>
     </row>
-    <row r="298" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="2" t="s">
         <v>1271</v>
       </c>
@@ -20601,7 +20605,7 @@
       </c>
       <c r="P298" s="2"/>
     </row>
-    <row r="299" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="2" t="s">
         <v>1275</v>
       </c>
@@ -20647,7 +20651,7 @@
       </c>
       <c r="P299" s="2"/>
     </row>
-    <row r="300" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="2" t="s">
         <v>1279</v>
       </c>
@@ -20693,7 +20697,7 @@
       </c>
       <c r="P300" s="2"/>
     </row>
-    <row r="301" spans="1:16" ht="192.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16" ht="196.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="2" t="s">
         <v>1283</v>
       </c>
@@ -20739,7 +20743,7 @@
       </c>
       <c r="P301" s="2"/>
     </row>
-    <row r="302" spans="1:16" ht="240.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:16" ht="233.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="2" t="s">
         <v>1286</v>
       </c>
@@ -20787,7 +20791,7 @@
       </c>
       <c r="P302" s="2"/>
     </row>
-    <row r="303" spans="1:16" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:16" ht="172.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="2" t="s">
         <v>1291</v>
       </c>
@@ -20835,7 +20839,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="2" t="s">
         <v>1296</v>
       </c>
@@ -20881,7 +20885,7 @@
       </c>
       <c r="P304" s="2"/>
     </row>
-    <row r="305" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:16" ht="184.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="2" t="s">
         <v>1300</v>
       </c>
@@ -20927,7 +20931,7 @@
       </c>
       <c r="P305" s="2"/>
     </row>
-    <row r="306" spans="1:16" ht="36.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:16" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="2" t="s">
         <v>1304</v>
       </c>
@@ -20973,7 +20977,7 @@
       </c>
       <c r="P306" s="2"/>
     </row>
-    <row r="307" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="2" t="s">
         <v>1308</v>
       </c>
@@ -21019,7 +21023,7 @@
       </c>
       <c r="P307" s="2"/>
     </row>
-    <row r="308" spans="1:16" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:16" ht="172.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="2" t="s">
         <v>1312</v>
       </c>
@@ -21065,7 +21069,7 @@
       </c>
       <c r="P308" s="2"/>
     </row>
-    <row r="309" spans="1:16" ht="228.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:16" ht="221.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="2" t="s">
         <v>1316</v>
       </c>
@@ -21111,7 +21115,7 @@
       </c>
       <c r="P309" s="2"/>
     </row>
-    <row r="310" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="2" t="s">
         <v>1320</v>
       </c>
@@ -21157,7 +21161,7 @@
       </c>
       <c r="P310" s="2"/>
     </row>
-    <row r="311" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="2" t="s">
         <v>1323</v>
       </c>
@@ -21203,7 +21207,7 @@
       </c>
       <c r="P311" s="2"/>
     </row>
-    <row r="312" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="2" t="s">
         <v>1327</v>
       </c>
@@ -21251,7 +21255,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="313" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="2" t="s">
         <v>1332</v>
       </c>
@@ -21299,7 +21303,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="2" t="s">
         <v>1336</v>
       </c>
@@ -21345,7 +21349,7 @@
       </c>
       <c r="P314" s="2"/>
     </row>
-    <row r="315" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="2" t="s">
         <v>1340</v>
       </c>
@@ -21391,7 +21395,7 @@
       </c>
       <c r="P315" s="2"/>
     </row>
-    <row r="316" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="2" t="s">
         <v>1343</v>
       </c>
@@ -21437,7 +21441,7 @@
       </c>
       <c r="P316" s="2"/>
     </row>
-    <row r="317" spans="1:16" ht="36.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:16" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="2" t="s">
         <v>1346</v>
       </c>
@@ -21485,7 +21489,7 @@
       </c>
       <c r="P317" s="2"/>
     </row>
-    <row r="318" spans="1:16" ht="324.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:16" ht="319.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="2" t="s">
         <v>1350</v>
       </c>
@@ -21531,7 +21535,7 @@
       </c>
       <c r="P318" s="2"/>
     </row>
-    <row r="319" spans="1:16" ht="228.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:16" ht="221.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="2" t="s">
         <v>1354</v>
       </c>
@@ -21577,7 +21581,7 @@
       </c>
       <c r="P319" s="2"/>
     </row>
-    <row r="320" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="2" t="s">
         <v>1358</v>
       </c>
@@ -21623,7 +21627,7 @@
       </c>
       <c r="P320" s="2"/>
     </row>
-    <row r="321" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="2" t="s">
         <v>1361</v>
       </c>
@@ -21669,7 +21673,7 @@
       </c>
       <c r="P321" s="2"/>
     </row>
-    <row r="322" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="2" t="s">
         <v>1364</v>
       </c>
@@ -21715,7 +21719,7 @@
       </c>
       <c r="P322" s="2"/>
     </row>
-    <row r="323" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="2" t="s">
         <v>1367</v>
       </c>
@@ -21763,7 +21767,7 @@
       </c>
       <c r="P323" s="2"/>
     </row>
-    <row r="324" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="2" t="s">
         <v>1371</v>
       </c>
@@ -21809,7 +21813,7 @@
       </c>
       <c r="P324" s="2"/>
     </row>
-    <row r="325" spans="1:16" ht="348.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:16" ht="344.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="2" t="s">
         <v>1375</v>
       </c>
@@ -21855,7 +21859,7 @@
       </c>
       <c r="P325" s="2"/>
     </row>
-    <row r="326" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="2" t="s">
         <v>1379</v>
       </c>
@@ -21901,7 +21905,7 @@
       </c>
       <c r="P326" s="2"/>
     </row>
-    <row r="327" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="2" t="s">
         <v>1383</v>
       </c>
@@ -21947,7 +21951,7 @@
       </c>
       <c r="P327" s="2"/>
     </row>
-    <row r="328" spans="1:16" ht="252.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:16" ht="246" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="2" t="s">
         <v>1387</v>
       </c>
@@ -21995,7 +21999,7 @@
       </c>
       <c r="P328" s="2"/>
     </row>
-    <row r="329" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:16" ht="184.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="2" t="s">
         <v>1391</v>
       </c>
@@ -22041,7 +22045,7 @@
       </c>
       <c r="P329" s="2"/>
     </row>
-    <row r="330" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="2" t="s">
         <v>1395</v>
       </c>
@@ -22087,7 +22091,7 @@
       </c>
       <c r="P330" s="2"/>
     </row>
-    <row r="331" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="2" t="s">
         <v>1399</v>
       </c>
@@ -22133,7 +22137,7 @@
       </c>
       <c r="P331" s="2"/>
     </row>
-    <row r="332" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="2" t="s">
         <v>1402</v>
       </c>
@@ -22179,7 +22183,7 @@
       </c>
       <c r="P332" s="2"/>
     </row>
-    <row r="333" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="2" t="s">
         <v>1405</v>
       </c>
@@ -22227,7 +22231,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="2" t="s">
         <v>1409</v>
       </c>
@@ -22273,7 +22277,7 @@
       </c>
       <c r="P334" s="2"/>
     </row>
-    <row r="335" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="2" t="s">
         <v>1413</v>
       </c>
@@ -22319,7 +22323,7 @@
       </c>
       <c r="P335" s="2"/>
     </row>
-    <row r="336" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="2" t="s">
         <v>1416</v>
       </c>
@@ -22365,7 +22369,7 @@
       </c>
       <c r="P336" s="2"/>
     </row>
-    <row r="337" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="2" t="s">
         <v>1420</v>
       </c>
@@ -22411,7 +22415,7 @@
       </c>
       <c r="P337" s="2"/>
     </row>
-    <row r="338" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="2" t="s">
         <v>1423</v>
       </c>
@@ -22457,7 +22461,7 @@
       </c>
       <c r="P338" s="2"/>
     </row>
-    <row r="339" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="2" t="s">
         <v>1427</v>
       </c>
@@ -22505,7 +22509,7 @@
       </c>
       <c r="P339" s="2"/>
     </row>
-    <row r="340" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="2" t="s">
         <v>1432</v>
       </c>
@@ -22553,7 +22557,7 @@
       </c>
       <c r="P340" s="2"/>
     </row>
-    <row r="341" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="2" t="s">
         <v>1436</v>
       </c>
@@ -22599,7 +22603,7 @@
       </c>
       <c r="P341" s="2"/>
     </row>
-    <row r="342" spans="1:16" ht="252.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:16" ht="258.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="2" t="s">
         <v>1440</v>
       </c>
@@ -22645,7 +22649,7 @@
       </c>
       <c r="P342" s="2"/>
     </row>
-    <row r="343" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:16" ht="184.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="2" t="s">
         <v>1445</v>
       </c>
@@ -22691,7 +22695,7 @@
       </c>
       <c r="P343" s="2"/>
     </row>
-    <row r="344" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="2" t="s">
         <v>1449</v>
       </c>
@@ -22739,7 +22743,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="345" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="2" t="s">
         <v>1453</v>
       </c>
@@ -22785,7 +22789,7 @@
       </c>
       <c r="P345" s="2"/>
     </row>
-    <row r="346" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="2" t="s">
         <v>1457</v>
       </c>
@@ -22833,7 +22837,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:16" ht="184.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="2" t="s">
         <v>1461</v>
       </c>
@@ -22879,7 +22883,7 @@
       </c>
       <c r="P347" s="2"/>
     </row>
-    <row r="348" spans="1:16" ht="228.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:16" ht="221.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="2" t="s">
         <v>1465</v>
       </c>
@@ -22927,7 +22931,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="324.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:16" ht="319.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="2" t="s">
         <v>1469</v>
       </c>
@@ -22973,7 +22977,7 @@
       </c>
       <c r="P349" s="2"/>
     </row>
-    <row r="350" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:16" ht="184.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="2" t="s">
         <v>1472</v>
       </c>
@@ -23021,7 +23025,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="351" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="2" t="s">
         <v>1476</v>
       </c>
@@ -23069,7 +23073,7 @@
       </c>
       <c r="P351" s="2"/>
     </row>
-    <row r="352" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:16" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="2" t="s">
         <v>1480</v>
       </c>
@@ -23115,7 +23119,7 @@
       </c>
       <c r="P352" s="2"/>
     </row>
-    <row r="353" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="2" t="s">
         <v>1484</v>
       </c>
@@ -23161,7 +23165,7 @@
       </c>
       <c r="P353" s="2"/>
     </row>
-    <row r="354" spans="1:16" ht="204.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:16" ht="209.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="2" t="s">
         <v>1488</v>
       </c>
@@ -23207,7 +23211,7 @@
       </c>
       <c r="P354" s="2"/>
     </row>
-    <row r="355" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="2" t="s">
         <v>1492</v>
       </c>
@@ -23253,7 +23257,7 @@
       </c>
       <c r="P355" s="2"/>
     </row>
-    <row r="356" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="2" t="s">
         <v>1496</v>
       </c>
@@ -23299,7 +23303,7 @@
       </c>
       <c r="P356" s="2"/>
     </row>
-    <row r="357" spans="1:16" ht="192.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:16" ht="196.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="2" t="s">
         <v>1499</v>
       </c>
@@ -23345,7 +23349,7 @@
       </c>
       <c r="P357" s="2"/>
     </row>
-    <row r="358" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="2" t="s">
         <v>1501</v>
       </c>
@@ -23391,7 +23395,7 @@
       </c>
       <c r="P358" s="2"/>
     </row>
-    <row r="359" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="2" t="s">
         <v>1505</v>
       </c>
@@ -23439,7 +23443,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="2" t="s">
         <v>1510</v>
       </c>
@@ -23485,7 +23489,7 @@
       </c>
       <c r="P360" s="2"/>
     </row>
-    <row r="361" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="2" t="s">
         <v>1514</v>
       </c>
@@ -23531,7 +23535,7 @@
       </c>
       <c r="P361" s="2"/>
     </row>
-    <row r="362" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="2" t="s">
         <v>1517</v>
       </c>
@@ -23577,7 +23581,7 @@
       </c>
       <c r="P362" s="2"/>
     </row>
-    <row r="363" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="2"/>
       <c r="B363" s="2" t="s">
         <v>1520</v>
@@ -23621,7 +23625,7 @@
       </c>
       <c r="P363" s="2"/>
     </row>
-    <row r="364" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="2"/>
       <c r="B364" s="2" t="s">
         <v>1523</v>
@@ -23667,7 +23671,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="2"/>
       <c r="B365" s="2" t="s">
         <v>1528</v>
@@ -23713,7 +23717,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="2"/>
       <c r="B366" s="2" t="s">
         <v>1531</v>
@@ -23757,7 +23761,7 @@
       </c>
       <c r="P366" s="2"/>
     </row>
-    <row r="367" spans="1:16" ht="252.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:16" ht="246" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="2"/>
       <c r="B367" s="2" t="s">
         <v>1534</v>
@@ -23803,7 +23807,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="2"/>
       <c r="B368" s="2" t="s">
         <v>1538</v>
@@ -23849,7 +23853,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="2"/>
       <c r="B369" s="2" t="s">
         <v>1542</v>
@@ -23895,7 +23899,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="2"/>
       <c r="B370" s="2" t="s">
         <v>1546</v>
@@ -23941,7 +23945,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="264.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:16" ht="270.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="2"/>
       <c r="B371" s="2" t="s">
         <v>1549</v>
@@ -23987,7 +23991,7 @@
       </c>
       <c r="P371" s="2"/>
     </row>
-    <row r="372" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="2"/>
       <c r="B372" s="2" t="s">
         <v>1552</v>
@@ -24033,7 +24037,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="2"/>
       <c r="B373" s="2" t="s">
         <v>1556</v>
@@ -24079,7 +24083,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="2"/>
       <c r="B374" s="2" t="s">
         <v>1560</v>
@@ -24123,7 +24127,7 @@
       </c>
       <c r="P374" s="2"/>
     </row>
-    <row r="375" spans="1:16" ht="300.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:16" ht="295.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="2"/>
       <c r="B375" s="2" t="s">
         <v>1564</v>
@@ -24167,7 +24171,7 @@
       </c>
       <c r="P375" s="2"/>
     </row>
-    <row r="376" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="2"/>
       <c r="B376" s="2" t="s">
         <v>1567</v>
@@ -24211,7 +24215,7 @@
       </c>
       <c r="P376" s="2"/>
     </row>
-    <row r="377" spans="1:16" ht="228.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:16" ht="221.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="2"/>
       <c r="B377" s="2" t="s">
         <v>1570</v>
@@ -24257,7 +24261,7 @@
       </c>
       <c r="P377" s="2"/>
     </row>
-    <row r="378" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="2"/>
       <c r="B378" s="2" t="s">
         <v>1573</v>
@@ -24303,7 +24307,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:16" ht="221.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="2"/>
       <c r="B379" s="2" t="s">
         <v>1577</v>
@@ -24349,7 +24353,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="2"/>
       <c r="B380" s="2" t="s">
         <v>1581</v>
@@ -24395,7 +24399,7 @@
       </c>
       <c r="P380" s="2"/>
     </row>
-    <row r="381" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="2"/>
       <c r="B381" s="2" t="s">
         <v>1584</v>
@@ -24441,7 +24445,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="2"/>
       <c r="B382" s="2" t="s">
         <v>1587</v>
@@ -24485,7 +24489,7 @@
       </c>
       <c r="P382" s="2"/>
     </row>
-    <row r="383" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="2"/>
       <c r="B383" s="2" t="s">
         <v>1590</v>
@@ -24531,7 +24535,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="2"/>
       <c r="B384" s="2" t="s">
         <v>1593</v>
@@ -24575,7 +24579,7 @@
       </c>
       <c r="P384" s="2"/>
     </row>
-    <row r="385" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="2"/>
       <c r="B385" s="2" t="s">
         <v>1596</v>
@@ -24621,7 +24625,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="2"/>
       <c r="B386" s="2" t="s">
         <v>1599</v>
@@ -24667,7 +24671,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="2"/>
       <c r="B387" s="2" t="s">
         <v>1602</v>
@@ -24711,7 +24715,7 @@
       </c>
       <c r="P387" s="2"/>
     </row>
-    <row r="388" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="2"/>
       <c r="B388" s="2" t="s">
         <v>1605</v>
@@ -24757,7 +24761,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="389" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="2"/>
       <c r="B389" s="2" t="s">
         <v>1608</v>
@@ -24803,7 +24807,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="390" spans="1:16" ht="36.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:16" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="2"/>
       <c r="B390" s="2" t="s">
         <v>1612</v>
@@ -24847,7 +24851,7 @@
       </c>
       <c r="P390" s="2"/>
     </row>
-    <row r="391" spans="1:16" ht="264.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:16" ht="258.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="2"/>
       <c r="B391" s="2" t="s">
         <v>1615</v>
@@ -24891,7 +24895,7 @@
       </c>
       <c r="P391" s="2"/>
     </row>
-    <row r="392" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="2"/>
       <c r="B392" s="2" t="s">
         <v>1618</v>
@@ -24937,7 +24941,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="2"/>
       <c r="B393" s="2" t="s">
         <v>1622</v>
@@ -24981,7 +24985,7 @@
       </c>
       <c r="P393" s="2"/>
     </row>
-    <row r="394" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:16" ht="184.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="2"/>
       <c r="B394" s="2" t="s">
         <v>1625</v>
@@ -25025,7 +25029,7 @@
       </c>
       <c r="P394" s="2"/>
     </row>
-    <row r="395" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="2"/>
       <c r="B395" s="2" t="s">
         <v>1628</v>
@@ -25069,7 +25073,7 @@
       </c>
       <c r="P395" s="2"/>
     </row>
-    <row r="396" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="2"/>
       <c r="B396" s="2" t="s">
         <v>1630</v>
@@ -25115,7 +25119,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:16" ht="172.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="2"/>
       <c r="B397" s="2" t="s">
         <v>1634</v>
@@ -25159,7 +25163,7 @@
       </c>
       <c r="P397" s="2"/>
     </row>
-    <row r="398" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="2"/>
       <c r="B398" s="2" t="s">
         <v>1637</v>
@@ -25205,7 +25209,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="300.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:16" ht="307.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="2"/>
       <c r="B399" s="2" t="s">
         <v>1641</v>
@@ -25249,7 +25253,7 @@
       </c>
       <c r="P399" s="2"/>
     </row>
-    <row r="400" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="2"/>
       <c r="B400" s="2" t="s">
         <v>1644</v>
@@ -25293,7 +25297,7 @@
       </c>
       <c r="P400" s="2"/>
     </row>
-    <row r="401" spans="1:16" ht="408.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:16" ht="393.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="2"/>
       <c r="B401" s="2" t="s">
         <v>1647</v>
@@ -25341,7 +25345,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="2"/>
       <c r="B402" s="2" t="s">
         <v>1651</v>
@@ -25385,7 +25389,7 @@
       </c>
       <c r="P402" s="2"/>
     </row>
-    <row r="403" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="2"/>
       <c r="B403" s="2" t="s">
         <v>1654</v>
@@ -25429,7 +25433,7 @@
       </c>
       <c r="P403" s="2"/>
     </row>
-    <row r="404" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="2"/>
       <c r="B404" s="2" t="s">
         <v>1657</v>
@@ -25473,7 +25477,7 @@
       </c>
       <c r="P404" s="2"/>
     </row>
-    <row r="405" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="2"/>
       <c r="B405" s="2" t="s">
         <v>1660</v>
@@ -25517,7 +25521,7 @@
       </c>
       <c r="P405" s="2"/>
     </row>
-    <row r="406" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="2"/>
       <c r="B406" s="2" t="s">
         <v>1663</v>
@@ -25561,7 +25565,7 @@
       </c>
       <c r="P406" s="2"/>
     </row>
-    <row r="407" spans="1:16" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="2"/>
       <c r="B407" s="2" t="s">
         <v>1666</v>
@@ -25607,7 +25611,7 @@
       </c>
       <c r="P407" s="2"/>
     </row>
-    <row r="408" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="2"/>
       <c r="B408" s="2" t="s">
         <v>1669</v>
@@ -25653,7 +25657,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="2"/>
       <c r="B409" s="2" t="s">
         <v>1671</v>
@@ -25697,7 +25701,7 @@
       </c>
       <c r="P409" s="2"/>
     </row>
-    <row r="410" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="2"/>
       <c r="B410" s="2" t="s">
         <v>1674</v>
@@ -25741,7 +25745,7 @@
       </c>
       <c r="P410" s="2"/>
     </row>
-    <row r="411" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="2"/>
       <c r="B411" s="2" t="s">
         <v>1677</v>
@@ -25785,7 +25789,7 @@
       </c>
       <c r="P411" s="2"/>
     </row>
-    <row r="412" spans="1:16" ht="276.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:16" ht="270.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="2"/>
       <c r="B412" s="2" t="s">
         <v>1680</v>
@@ -25829,7 +25833,7 @@
       </c>
       <c r="P412" s="2"/>
     </row>
-    <row r="413" spans="1:16" ht="192.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:16" ht="196.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="2"/>
       <c r="B413" s="2" t="s">
         <v>1683</v>
@@ -25873,7 +25877,7 @@
       </c>
       <c r="P413" s="2"/>
     </row>
-    <row r="414" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="2"/>
       <c r="B414" s="2" t="s">
         <v>1686</v>
@@ -25919,7 +25923,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="415" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:16" ht="172.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="2"/>
       <c r="B415" s="2" t="s">
         <v>1690</v>
@@ -25963,7 +25967,7 @@
       </c>
       <c r="P415" s="2"/>
     </row>
-    <row r="416" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="2"/>
       <c r="B416" s="2" t="s">
         <v>1693</v>
@@ -26009,7 +26013,7 @@
       </c>
       <c r="P416" s="2"/>
     </row>
-    <row r="417" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="2"/>
       <c r="B417" s="2" t="s">
         <v>1696</v>
@@ -26055,7 +26059,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:16" ht="172.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="2"/>
       <c r="B418" s="2" t="s">
         <v>1699</v>
@@ -26099,7 +26103,7 @@
       </c>
       <c r="P418" s="2"/>
     </row>
-    <row r="419" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="2"/>
       <c r="B419" s="2" t="s">
         <v>1702</v>
@@ -26143,7 +26147,7 @@
       </c>
       <c r="P419" s="2"/>
     </row>
-    <row r="420" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="2"/>
       <c r="B420" s="2" t="s">
         <v>1705</v>
@@ -26187,7 +26191,7 @@
       </c>
       <c r="P420" s="2"/>
     </row>
-    <row r="421" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="2"/>
       <c r="B421" s="2" t="s">
         <v>1708</v>
@@ -26231,7 +26235,7 @@
       </c>
       <c r="P421" s="2"/>
     </row>
-    <row r="422" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="2"/>
       <c r="B422" s="2" t="s">
         <v>1711</v>
@@ -26275,7 +26279,7 @@
       </c>
       <c r="P422" s="2"/>
     </row>
-    <row r="423" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="2"/>
       <c r="B423" s="2" t="s">
         <v>1714</v>
@@ -26319,7 +26323,7 @@
       </c>
       <c r="P423" s="2"/>
     </row>
-    <row r="424" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="2"/>
       <c r="B424" s="2" t="s">
         <v>1717</v>
@@ -26363,7 +26367,7 @@
       </c>
       <c r="P424" s="2"/>
     </row>
-    <row r="425" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="2"/>
       <c r="B425" s="2" t="s">
         <v>1719</v>
@@ -26407,7 +26411,7 @@
       </c>
       <c r="P425" s="2"/>
     </row>
-    <row r="426" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="2"/>
       <c r="B426" s="2" t="s">
         <v>1722</v>
@@ -26453,7 +26457,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="2"/>
       <c r="B427" s="2" t="s">
         <v>1726</v>
@@ -26499,7 +26503,7 @@
       </c>
       <c r="P427" s="2"/>
     </row>
-    <row r="428" spans="1:16" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="2"/>
       <c r="B428" s="2" t="s">
         <v>1729</v>
@@ -26543,7 +26547,7 @@
       </c>
       <c r="P428" s="2"/>
     </row>
-    <row r="429" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="2"/>
       <c r="B429" s="2" t="s">
         <v>1732</v>
@@ -26587,7 +26591,7 @@
       </c>
       <c r="P429" s="2"/>
     </row>
-    <row r="430" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="2"/>
       <c r="B430" s="2" t="s">
         <v>1735</v>
@@ -26631,7 +26635,7 @@
       </c>
       <c r="P430" s="2"/>
     </row>
-    <row r="431" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="2"/>
       <c r="B431" s="2" t="s">
         <v>1738</v>
@@ -26675,7 +26679,7 @@
       </c>
       <c r="P431" s="2"/>
     </row>
-    <row r="432" spans="1:16" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:16" ht="209.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="2"/>
       <c r="B432" s="2" t="s">
         <v>1741</v>
@@ -26719,7 +26723,7 @@
       </c>
       <c r="P432" s="2"/>
     </row>
-    <row r="433" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="2"/>
       <c r="B433" s="2" t="s">
         <v>1744</v>
@@ -26765,7 +26769,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="434" spans="1:16" ht="360.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:16" ht="356.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="2"/>
       <c r="B434" s="2" t="s">
         <v>1747</v>
@@ -26811,7 +26815,7 @@
       </c>
       <c r="P434" s="2"/>
     </row>
-    <row r="435" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="2"/>
       <c r="B435" s="2" t="s">
         <v>1751</v>
@@ -26857,7 +26861,7 @@
       </c>
       <c r="P435" s="2"/>
     </row>
-    <row r="436" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="2"/>
       <c r="B436" s="2" t="s">
         <v>1755</v>
@@ -26903,7 +26907,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="437" spans="1:16" ht="312.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:16" ht="319.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="2"/>
       <c r="B437" s="2" t="s">
         <v>1759</v>
@@ -26949,7 +26953,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="438" spans="1:16" ht="192.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:16" ht="196.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="2"/>
       <c r="B438" s="2" t="s">
         <v>1763</v>
@@ -26995,7 +26999,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="439" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="2"/>
       <c r="B439" s="2" t="s">
         <v>1767</v>
@@ -27039,7 +27043,7 @@
       </c>
       <c r="P439" s="2"/>
     </row>
-    <row r="440" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="2"/>
       <c r="B440" s="2" t="s">
         <v>1770</v>
@@ -27085,7 +27089,7 @@
       </c>
       <c r="P440" s="2"/>
     </row>
-    <row r="441" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:16" ht="184.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="2"/>
       <c r="B441" s="2" t="s">
         <v>1773</v>
@@ -27129,7 +27133,7 @@
       </c>
       <c r="P441" s="2"/>
     </row>
-    <row r="442" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="2"/>
       <c r="B442" s="2" t="s">
         <v>1776</v>
@@ -27173,7 +27177,7 @@
       </c>
       <c r="P442" s="2"/>
     </row>
-    <row r="443" spans="1:16" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="2"/>
       <c r="B443" s="2" t="s">
         <v>1779</v>
@@ -27219,7 +27223,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="444" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="2"/>
       <c r="B444" s="2" t="s">
         <v>1782</v>
@@ -27263,7 +27267,7 @@
       </c>
       <c r="P444" s="2"/>
     </row>
-    <row r="445" spans="1:16" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:16" ht="221.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="2"/>
       <c r="B445" s="2" t="s">
         <v>1785</v>
@@ -27309,7 +27313,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="446" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="2"/>
       <c r="B446" s="2" t="s">
         <v>1789</v>
@@ -27353,7 +27357,7 @@
       </c>
       <c r="P446" s="2"/>
     </row>
-    <row r="447" spans="1:16" ht="348.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:16" ht="344.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="2"/>
       <c r="B447" s="2" t="s">
         <v>1792</v>
@@ -27397,7 +27401,7 @@
       </c>
       <c r="P447" s="2"/>
     </row>
-    <row r="448" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="2"/>
       <c r="B448" s="2" t="s">
         <v>1795</v>
@@ -27443,7 +27447,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="449" spans="1:16" ht="252.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:16" ht="246" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="2"/>
       <c r="B449" s="2" t="s">
         <v>1799</v>
@@ -27489,7 +27493,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="450" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="2"/>
       <c r="B450" s="2" t="s">
         <v>1802</v>
@@ -27533,7 +27537,7 @@
       </c>
       <c r="P450" s="2"/>
     </row>
-    <row r="451" spans="1:16" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:16" ht="172.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="2"/>
       <c r="B451" s="2" t="s">
         <v>1805</v>
@@ -27577,7 +27581,7 @@
       </c>
       <c r="P451" s="2"/>
     </row>
-    <row r="452" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="2"/>
       <c r="B452" s="2" t="s">
         <v>1808</v>
@@ -27621,7 +27625,7 @@
       </c>
       <c r="P452" s="2"/>
     </row>
-    <row r="453" spans="1:16" ht="312.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:16" ht="319.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="2"/>
       <c r="B453" s="2" t="s">
         <v>1811</v>
@@ -27665,7 +27669,7 @@
       </c>
       <c r="P453" s="2"/>
     </row>
-    <row r="454" spans="1:16" ht="276.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:16" ht="282.89999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="2"/>
       <c r="B454" s="2" t="s">
         <v>1814</v>
@@ -27709,7 +27713,7 @@
       </c>
       <c r="P454" s="2"/>
     </row>
-    <row r="455" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="2"/>
       <c r="B455" s="2" t="s">
         <v>1817</v>
@@ -27753,7 +27757,7 @@
       </c>
       <c r="P455" s="2"/>
     </row>
-    <row r="456" spans="1:16" ht="240.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:16" ht="246" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="2"/>
       <c r="B456" s="2" t="s">
         <v>1820</v>
@@ -27797,7 +27801,7 @@
       </c>
       <c r="P456" s="2"/>
     </row>
-    <row r="457" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="2"/>
       <c r="B457" s="2" t="s">
         <v>1823</v>
@@ -27841,7 +27845,7 @@
       </c>
       <c r="P457" s="2"/>
     </row>
-    <row r="458" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="2"/>
       <c r="B458" s="2" t="s">
         <v>1826</v>
@@ -27885,7 +27889,7 @@
       </c>
       <c r="P458" s="2"/>
     </row>
-    <row r="459" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="2"/>
       <c r="B459" s="2" t="s">
         <v>1829</v>
@@ -27931,7 +27935,7 @@
       </c>
       <c r="P459" s="2"/>
     </row>
-    <row r="460" spans="1:16" ht="240.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:16" ht="233.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="2"/>
       <c r="B460" s="2" t="s">
         <v>1833</v>
@@ -27975,7 +27979,7 @@
       </c>
       <c r="P460" s="2"/>
     </row>
-    <row r="461" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="2"/>
       <c r="B461" s="2" t="s">
         <v>1838</v>
@@ -28021,7 +28025,7 @@
       </c>
       <c r="P461" s="2"/>
     </row>
-    <row r="462" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="2"/>
       <c r="B462" s="2" t="s">
         <v>1841</v>
@@ -28067,7 +28071,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="463" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="2"/>
       <c r="B463" s="2" t="s">
         <v>1845</v>
@@ -28111,7 +28115,7 @@
       </c>
       <c r="P463" s="2"/>
     </row>
-    <row r="464" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="2"/>
       <c r="B464" s="2" t="s">
         <v>1848</v>
@@ -28155,7 +28159,7 @@
       </c>
       <c r="P464" s="2"/>
     </row>
-    <row r="465" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="2"/>
       <c r="B465" s="2" t="s">
         <v>1851</v>
@@ -28201,7 +28205,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="466" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="2"/>
       <c r="B466" s="2" t="s">
         <v>1855</v>
@@ -28249,7 +28253,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="467" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="2"/>
       <c r="B467" s="2" t="s">
         <v>1860</v>
@@ -28297,7 +28301,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="468" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="2"/>
       <c r="B468" s="2" t="s">
         <v>1864</v>
@@ -28345,7 +28349,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="469" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="2"/>
       <c r="B469" s="2" t="s">
         <v>1868</v>
@@ -28393,7 +28397,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="470" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="2"/>
       <c r="B470" s="2" t="s">
         <v>321</v>
@@ -28441,7 +28445,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="471" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="2"/>
       <c r="B471" s="2" t="s">
         <v>1874</v>
@@ -28489,7 +28493,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="472" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="2"/>
       <c r="B472" s="2" t="s">
         <v>1877</v>
@@ -28537,7 +28541,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="473" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="2"/>
       <c r="B473" s="2" t="s">
         <v>1882</v>
@@ -28585,7 +28589,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="474" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="2"/>
       <c r="B474" s="2" t="s">
         <v>1885</v>
@@ -28633,7 +28637,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="475" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="2"/>
       <c r="B475" s="2" t="s">
         <v>1888</v>
@@ -28677,7 +28681,7 @@
       </c>
       <c r="P475" s="2"/>
     </row>
-    <row r="476" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="2"/>
       <c r="B476" s="2" t="s">
         <v>1891</v>
@@ -28723,7 +28727,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="477" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="2"/>
       <c r="B477" s="2" t="s">
         <v>1896</v>
@@ -28769,7 +28773,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="478" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:16" ht="184.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="2"/>
       <c r="B478" s="2" t="s">
         <v>1900</v>
@@ -28815,7 +28819,7 @@
       </c>
       <c r="P478" s="2"/>
     </row>
-    <row r="479" spans="1:16" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:16" ht="221.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="2"/>
       <c r="B479" s="2" t="s">
         <v>1903</v>
@@ -28859,7 +28863,7 @@
       </c>
       <c r="P479" s="2"/>
     </row>
-    <row r="480" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="2"/>
       <c r="B480" s="2" t="s">
         <v>1906</v>
@@ -28907,7 +28911,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="481" spans="1:16" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:16" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="2"/>
       <c r="B481" s="2" t="s">
         <v>1909</v>
@@ -28951,7 +28955,7 @@
       </c>
       <c r="P481" s="2"/>
     </row>
-    <row r="482" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="2"/>
       <c r="B482" s="2" t="s">
         <v>1911</v>
@@ -28997,7 +29001,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="483" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="2"/>
       <c r="B483" s="2" t="s">
         <v>1914</v>
@@ -29043,7 +29047,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="484" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="2"/>
       <c r="B484" s="2" t="s">
         <v>1916</v>
@@ -29091,7 +29095,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="485" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="2"/>
       <c r="B485" s="2" t="s">
         <v>1920</v>
@@ -29137,7 +29141,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="486" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="2"/>
       <c r="B486" s="2" t="s">
         <v>1923</v>
@@ -29183,7 +29187,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="487" spans="1:16" ht="264.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:16" ht="258.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="2"/>
       <c r="B487" s="2" t="s">
         <v>1927</v>
@@ -29227,7 +29231,7 @@
       </c>
       <c r="P487" s="2"/>
     </row>
-    <row r="488" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="2"/>
       <c r="B488" s="2" t="s">
         <v>1931</v>
@@ -29271,7 +29275,7 @@
       </c>
       <c r="P488" s="2"/>
     </row>
-    <row r="489" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="2"/>
       <c r="B489" s="2" t="s">
         <v>1934</v>
@@ -29315,7 +29319,7 @@
       </c>
       <c r="P489" s="2"/>
     </row>
-    <row r="490" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="2"/>
       <c r="B490" s="2" t="s">
         <v>1937</v>
@@ -29361,7 +29365,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="491" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="2"/>
       <c r="B491" s="2" t="s">
         <v>1942</v>
@@ -29407,7 +29411,7 @@
       </c>
       <c r="P491" s="2"/>
     </row>
-    <row r="492" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="2"/>
       <c r="B492" s="2" t="s">
         <v>1945</v>
@@ -29453,7 +29457,7 @@
       </c>
       <c r="P492" s="2"/>
     </row>
-    <row r="493" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="2"/>
       <c r="B493" s="2" t="s">
         <v>1948</v>
@@ -29497,7 +29501,7 @@
       </c>
       <c r="P493" s="2"/>
     </row>
-    <row r="494" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="2"/>
       <c r="B494" s="2" t="s">
         <v>1951</v>
@@ -29543,7 +29547,7 @@
       </c>
       <c r="P494" s="2"/>
     </row>
-    <row r="495" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="2"/>
       <c r="B495" s="2" t="s">
         <v>1955</v>
@@ -29589,7 +29593,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="496" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="2"/>
       <c r="B496" s="2" t="s">
         <v>1957</v>
@@ -29635,7 +29639,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="497" spans="1:16" ht="36.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:16" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="2"/>
       <c r="B497" s="2" t="s">
         <v>1961</v>
@@ -29681,7 +29685,7 @@
       </c>
       <c r="P497" s="2"/>
     </row>
-    <row r="498" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="2"/>
       <c r="B498" s="2" t="s">
         <v>1964</v>
@@ -29727,7 +29731,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="499" spans="1:16" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="2"/>
       <c r="B499" s="2" t="s">
         <v>1967</v>
@@ -29773,7 +29777,7 @@
       </c>
       <c r="P499" s="2"/>
     </row>
-    <row r="500" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="2"/>
       <c r="B500" s="2" t="s">
         <v>1970</v>
@@ -29819,7 +29823,7 @@
       </c>
       <c r="P500" s="2"/>
     </row>
-    <row r="501" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="2"/>
       <c r="B501" s="2" t="s">
         <v>1973</v>
@@ -29863,7 +29867,7 @@
       </c>
       <c r="P501" s="2"/>
     </row>
-    <row r="502" spans="1:16" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:16" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="2"/>
       <c r="B502" s="2" t="s">
         <v>1976</v>
@@ -29909,7 +29913,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="503" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="2"/>
       <c r="B503" s="2" t="s">
         <v>1980</v>
@@ -29955,7 +29959,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="504" spans="1:16" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:16" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="2"/>
       <c r="B504" s="2" t="s">
         <v>1983</v>
@@ -30003,7 +30007,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="505" spans="1:16" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:16" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="2"/>
       <c r="B505" s="2" t="s">
         <v>1987</v>
@@ -30049,7 +30053,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="506" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:16" ht="184.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="2"/>
       <c r="B506" s="2" t="s">
         <v>1991</v>
@@ -30095,7 +30099,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="507" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="2"/>
       <c r="B507" s="2" t="s">
         <v>1994</v>
@@ -30141,7 +30145,7 @@
       </c>
       <c r="P507" s="2"/>
     </row>
-    <row r="508" spans="1:16" ht="132.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:16" ht="135.30000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="2"/>
       <c r="B508" s="2" t="s">
         <v>1999</v>
@@ -30187,7 +30191,7 @@
       </c>
       <c r="P508" s="2"/>
     </row>
-    <row r="509" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="2"/>
       <c r="B509" s="2" t="s">
         <v>2002</v>
@@ -30233,7 +30237,7 @@
       </c>
       <c r="P509" s="2"/>
     </row>
-    <row r="510" spans="1:16" ht="108.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:16" ht="110.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="2"/>
       <c r="B510" s="2" t="s">
         <v>2005</v>
@@ -30281,7 +30285,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="511" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="2"/>
       <c r="B511" s="2" t="s">
         <v>2010</v>
@@ -30327,7 +30331,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="512" spans="1:16" ht="180.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:16" ht="172.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="2"/>
       <c r="B512" s="2" t="s">
         <v>2014</v>
@@ -30371,7 +30375,7 @@
       </c>
       <c r="P512" s="2"/>
     </row>
-    <row r="513" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:16" ht="159.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="2"/>
       <c r="B513" s="2" t="s">
         <v>2017</v>
@@ -30417,7 +30421,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="514" spans="1:16" ht="288.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:16" ht="282.89999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="2"/>
       <c r="B514" s="2" t="s">
         <v>2021</v>
@@ -30465,7 +30469,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="515" spans="1:16" ht="288.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:16" ht="282.89999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="2"/>
       <c r="B515" s="2" t="s">
         <v>2025</v>
@@ -30511,7 +30515,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="516" spans="1:16" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:16" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="2"/>
       <c r="B516" s="2" t="s">
         <v>2029</v>
@@ -30557,7 +30561,7 @@
       </c>
       <c r="P516" s="2"/>
     </row>
-    <row r="517" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:16" ht="86.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="2"/>
       <c r="B517" s="2" t="s">
         <v>2032</v>
@@ -30601,7 +30605,7 @@
       </c>
       <c r="P517" s="2"/>
     </row>
-    <row r="518" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="2"/>
       <c r="B518" s="2" t="s">
         <v>2034</v>
@@ -30645,7 +30649,7 @@
       </c>
       <c r="P518" s="2"/>
     </row>
-    <row r="519" spans="1:16" ht="84.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:16" ht="73.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="2"/>
       <c r="B519" s="2" t="s">
         <v>2038</v>
@@ -30691,7 +30695,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="520" spans="1:16" ht="96.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:16" ht="98.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="2"/>
       <c r="B520" s="2" t="s">
         <v>2041</v>
